--- a/InventoryTracker/InventoryTracker/InventoryDatabase.xlsx
+++ b/InventoryTracker/InventoryTracker/InventoryDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{156D3992-8B4A-4FCB-A73D-41F8BBAC37A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7E633214-CF36-4A63-AFA1-757637FF1D5B}"/>
   <bookViews>
-    <workbookView xWindow="31470" yWindow="2475" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1875" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
